--- a/htdocs/search/database.xlsx
+++ b/htdocs/search/database.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamar\Desktop\shimoda-a-master\htdocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamar\Desktop\shimoda-a-master\htdocs\search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86549369-0E27-408B-A97F-B136DDAFD1E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0576432-7D33-4330-B384-118F66D536B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7570" xr2:uid="{3582F022-BC15-495F-AB9A-44E16D71B09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,16 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>店名</t>
     <rPh sb="0" eb="2">
       <t>テンメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Aラーメン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -127,13 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>値段</t>
-    <rPh sb="0" eb="2">
-      <t>ネダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>醤油</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,17 +131,6 @@
     <rPh sb="0" eb="2">
       <t>メンルイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おいしい</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -191,9 +169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>太郎系</t>
-  </si>
-  <si>
     <t>個性的</t>
     <rPh sb="0" eb="3">
       <t>コセイテキ</t>
@@ -222,6 +197,99 @@
     <t>固</t>
     <rPh sb="0" eb="1">
       <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短く説明</t>
+    <rPh sb="0" eb="1">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業時間</t>
+    <rPh sb="0" eb="4">
+      <t>エイギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細
+ページ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日高屋</t>
+    <rPh sb="0" eb="3">
+      <t>ヒダカヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェーン店&lt;br&gt;色々な種類のラーメンが食べられる。</t>
+  </si>
+  <si>
+    <t>〒275-0016 千葉県習志野市津田沼１丁目１−１ 千葉県</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hidakaya.hiday.co.jp</t>
+  </si>
+  <si>
+    <t>047-476-8770</t>
+  </si>
+  <si>
+    <t>11時00分～2時30分</t>
+  </si>
+  <si>
+    <t>チェーン店&lt;br&gt;安くて美味しい</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -230,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,13 +314,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -269,12 +349,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE49508D-0D19-47A5-93EF-66B5918E999A}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -606,119 +692,162 @@
     <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="48.58203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -748,21 +877,21 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -792,15 +921,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -827,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P5">
         <v>1</v>

--- a/htdocs/search/database.xlsx
+++ b/htdocs/search/database.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamar\Desktop\shimoda-a-master\htdocs\search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0576432-7D33-4330-B384-118F66D536B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3243CFB6-350A-4144-AD72-84489513F593}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7570" xr2:uid="{3582F022-BC15-495F-AB9A-44E16D71B09A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="database" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>店名</t>
     <rPh sb="0" eb="2">
@@ -250,14 +251,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細
-ページ</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日高屋</t>
     <rPh sb="0" eb="3">
       <t>ヒダカヤ</t>
@@ -278,9 +271,6 @@
     <t>047-476-8770</t>
   </si>
   <si>
-    <t>11時00分～2時30分</t>
-  </si>
-  <si>
     <t>チェーン店&lt;br&gt;安くて美味しい</t>
     <rPh sb="4" eb="5">
       <t>テン</t>
@@ -290,6 +280,44 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>オイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11:00～14:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力者</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力者</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -298,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,19 +348,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -356,11 +386,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,7 +709,7 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -703,7 +733,7 @@
     <col min="25" max="25" width="17.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,34 +788,24 @@
       <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="T1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -823,21 +843,10 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -970,4 +979,98 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A893956-BD30-4E8D-8775-E591605223BA}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>